--- a/config/area_code.xlsx
+++ b/config/area_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\work104_tibame\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74077443-352D-486D-A0CB-68F49B07DB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2505D7D5-26BD-45E1-B9B2-30E27269448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="1515" windowWidth="21600" windowHeight="11190" tabRatio="716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="1635" windowWidth="21360" windowHeight="11070" tabRatio="716" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taiwan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Taipei</t>
   </si>
@@ -588,6 +588,18 @@
   </si>
   <si>
     <t>Mid Europe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_en</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_zh_tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -987,354 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6001001000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6001002000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6001003000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6001004000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6001005000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6001006000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6001007000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6001008000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6001010000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6001011000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6001012000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6001013000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6001014000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6001016000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6001018000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6001019000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6001020000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6001021000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6001022000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6001023000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ADEC55-F49F-4D26-B31E-E3F6D57CEC2C}">
-  <dimension ref="A2:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6002000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6002001000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6002002000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6002003000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6002004000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6002005000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6002008000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6002008001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CD7446-4F5D-4C5B-9CCC-568AE1EBFCB1}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1345,37 +1010,247 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6003000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6003000000</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6001001000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6001002000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6001003000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6001004000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6001005000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6001006000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6001007000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6001008000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6001010000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6001011000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6001012000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6001013000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6001014000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6001016000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6001018000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6001019000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6001020000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6001021000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6001022000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6001023000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FF7F7-B700-41B9-A97E-0DAA91AE0A16}">
-  <dimension ref="A2:C3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ADEC55-F49F-4D26-B31E-E3F6D57CEC2C}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1386,6 +1261,188 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6002000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6002001000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6002002000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6002003000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6002004000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6002005000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6002008000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6002008001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CD7446-4F5D-4C5B-9CCC-568AE1EBFCB1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6003000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6003000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FF7F7-B700-41B9-A97E-0DAA91AE0A16}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>57</v>
@@ -1416,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9720D36C-7152-4742-AE5F-4598833509F4}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1429,6 +1486,17 @@
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>58</v>
@@ -1460,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E7ABCD-F4FC-4126-936A-60058C5B179B}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1473,6 +1541,17 @@
     <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>59</v>
@@ -1503,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3605F8CD-C5B1-49DE-947A-57A0094CD759}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1514,6 +1593,17 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>58</v>
@@ -1577,9 +1667,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D8071B-D507-4B52-8920-32C5183B8CB7}">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1590,6 +1680,17 @@
     <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>58</v>
